--- a/stock_consolidated.xlsx
+++ b/stock_consolidated.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>stock_2.csv, stock_1.csv</t>
+          <t>stock_1.csv, stock_2.csv</t>
         </is>
       </c>
     </row>

--- a/stock_consolidated.xlsx
+++ b/stock_consolidated.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P004</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -485,31 +485,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>stock_1.csv, stock_2.csv</t>
+          <t>stock_1.csv</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P005</t>
+          <t>P002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canapé</t>
+          <t>Chaise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,14 +518,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-01-02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -537,73 +537,73 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P006</t>
+          <t>P003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Étagère</t>
+          <t>Lampe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Meubles</t>
+          <t>Éclairage</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-01-03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>stock_1.csv</t>
+          <t>stock_2.csv, stock_1.csv</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P007</t>
+          <t>P004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plafonnier</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Éclairage</t>
+          <t>Meubles</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>stock_2.csv</t>
+          <t>stock_2.csv, stock_1.csv</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P008</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,10 +624,43 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>stock_2.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Armoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Meubles</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>stock_2.csv</t>
         </is>
